--- a/data/20Da/data.xlsx
+++ b/data/20Da/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomis\OneDrive\LUCK\luckLab\irm_-class-master\IRM_class\data\20Da\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793F0172-79FF-46E6-8D0F-A11750881780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233D77A-5D4F-443D-A80D-1AE296A42CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="5" xr2:uid="{C669B47A-D3A0-48A6-B46D-908F64AA34FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{C669B47A-D3A0-48A6-B46D-908F64AA34FD}"/>
   </bookViews>
   <sheets>
     <sheet name="规模以上" sheetId="1" r:id="rId1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2FE554-46EE-4F12-89C7-443F6171AD67}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <v>3097.19</v>
+        <v>3123.13</v>
       </c>
       <c r="C6" s="6">
         <v>2.9</v>
@@ -1221,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C70E4A6-86DF-4763-9FF9-53202F6345E7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
